--- a/数据整理/stocks/港股/01398-中国工商银行股份有限公司.xlsx
+++ b/数据整理/stocks/港股/01398-中国工商银行股份有限公司.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="189">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,367 +22,565 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>510900</t>
+  </si>
+  <si>
+    <t>159920</t>
+  </si>
+  <si>
+    <t>009960</t>
+  </si>
+  <si>
+    <t>010365</t>
+  </si>
+  <si>
+    <t>501025</t>
+  </si>
+  <si>
+    <t>010010</t>
+  </si>
+  <si>
+    <t>161831</t>
+  </si>
+  <si>
+    <t>513660</t>
+  </si>
+  <si>
+    <t>159960</t>
+  </si>
+  <si>
+    <t>006809</t>
+  </si>
+  <si>
+    <t>501301</t>
+  </si>
+  <si>
+    <t>006810</t>
+  </si>
+  <si>
+    <t>159954</t>
+  </si>
+  <si>
+    <t>160717</t>
+  </si>
+  <si>
+    <t>164705</t>
+  </si>
+  <si>
+    <t>513600</t>
+  </si>
+  <si>
+    <t>008407</t>
+  </si>
+  <si>
     <t>241001</t>
   </si>
   <si>
+    <t>006781</t>
+  </si>
+  <si>
+    <t>006355</t>
+  </si>
+  <si>
     <t>006778</t>
   </si>
   <si>
+    <t>513680</t>
+  </si>
+  <si>
+    <t>513990</t>
+  </si>
+  <si>
+    <t>159963</t>
+  </si>
+  <si>
+    <t>003993</t>
+  </si>
+  <si>
+    <t>005883</t>
+  </si>
+  <si>
+    <t>006658</t>
+  </si>
+  <si>
+    <t>166402</t>
+  </si>
+  <si>
+    <t>008408</t>
+  </si>
+  <si>
     <t>006779</t>
   </si>
   <si>
     <t>010789</t>
   </si>
   <si>
-    <t>159920</t>
-  </si>
-  <si>
-    <t>160717</t>
-  </si>
-  <si>
-    <t>161831</t>
-  </si>
-  <si>
-    <t>164705</t>
-  </si>
-  <si>
-    <t>510900</t>
-  </si>
-  <si>
-    <t>006355</t>
-  </si>
-  <si>
-    <t>006658</t>
+    <t>501309</t>
   </si>
   <si>
     <t>006659</t>
   </si>
   <si>
-    <t>006781</t>
-  </si>
-  <si>
-    <t>006809</t>
-  </si>
-  <si>
-    <t>006810</t>
-  </si>
-  <si>
-    <t>010365</t>
-  </si>
-  <si>
-    <t>159954</t>
-  </si>
-  <si>
-    <t>501309</t>
-  </si>
-  <si>
-    <t>513680</t>
-  </si>
-  <si>
-    <t>513990</t>
-  </si>
-  <si>
-    <t>008407</t>
-  </si>
-  <si>
-    <t>008408</t>
-  </si>
-  <si>
-    <t>159960</t>
-  </si>
-  <si>
-    <t>166402</t>
-  </si>
-  <si>
-    <t>501025</t>
-  </si>
-  <si>
-    <t>513660</t>
-  </si>
-  <si>
-    <t>159963</t>
-  </si>
-  <si>
-    <t>501301</t>
-  </si>
-  <si>
-    <t>513600</t>
-  </si>
-  <si>
-    <t>010010</t>
-  </si>
-  <si>
-    <t>003993</t>
-  </si>
-  <si>
-    <t>005883</t>
-  </si>
-  <si>
-    <t>009960</t>
+    <t>易方达恒生国企(QDII-ETF)</t>
+  </si>
+  <si>
+    <t>华夏恒生ETF(QDII)</t>
+  </si>
+  <si>
+    <t>银华多元机遇混合</t>
+  </si>
+  <si>
+    <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+  </si>
+  <si>
+    <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+  </si>
+  <si>
+    <t>国投瑞银港股通6个月定期开放股票</t>
+  </si>
+  <si>
+    <t>银华恒生国企指数（QDII-LOF）</t>
+  </si>
+  <si>
+    <t>华夏沪港通恒生ETF</t>
+  </si>
+  <si>
+    <t>平安港股通恒生中国企业ETF</t>
+  </si>
+  <si>
+    <t>泰康港股通中证香港银行投资指数A</t>
+  </si>
+  <si>
+    <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+  </si>
+  <si>
+    <t>泰康港股通中证香港银行投资指数C</t>
+  </si>
+  <si>
+    <t>南方恒生中国企业ETF</t>
+  </si>
+  <si>
+    <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+  </si>
+  <si>
+    <t>汇添富恒生指数（QDII-LOF）A</t>
+  </si>
+  <si>
+    <t>南方恒生ETF</t>
+  </si>
+  <si>
+    <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
   </si>
   <si>
     <t>华宝海外中国混合(QDII)</t>
   </si>
   <si>
+    <t>汇丰晋信港股通精选股票</t>
+  </si>
+  <si>
+    <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+  </si>
+  <si>
     <t>广发恒生中国企业精明指数（QDII）A</t>
   </si>
   <si>
+    <t>建信港股通恒生中国企业ETF</t>
+  </si>
+  <si>
+    <t>招商上证港股通ETF</t>
+  </si>
+  <si>
+    <t>富国恒生中国企业ETF</t>
+  </si>
+  <si>
+    <t>前海开源沪港深核心驱动灵活配置混合</t>
+  </si>
+  <si>
+    <t>华宝港股通香港精选混合</t>
+  </si>
+  <si>
+    <t>财通中证香港红利等权投资指数A</t>
+  </si>
+  <si>
+    <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+  </si>
+  <si>
+    <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+  </si>
+  <si>
     <t>广发恒生中国企业精明指数（QDII）C</t>
   </si>
   <si>
     <t>汇添富恒生指数（QDII-LOF）C</t>
   </si>
   <si>
-    <t>华夏恒生ETF(QDII)</t>
-  </si>
-  <si>
-    <t>嘉实恒生中国企业指数(QDII-LOF)</t>
-  </si>
-  <si>
-    <t>银华恒生国企指数（QDII-LOF）</t>
-  </si>
-  <si>
-    <t>汇添富恒生指数（QDII-LOF）A</t>
-  </si>
-  <si>
-    <t>易方达恒生国企(QDII-ETF)</t>
-  </si>
-  <si>
-    <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
-  </si>
-  <si>
-    <t>财通中证香港红利等权投资指数A</t>
+    <t>国泰恒生港股通指数（LOF）</t>
   </si>
   <si>
     <t>财通中证香港红利等权投资指数C</t>
   </si>
   <si>
-    <t>汇丰晋信港股通精选股票</t>
-  </si>
-  <si>
-    <t>泰康港股通中证香港银行投资指数A</t>
-  </si>
-  <si>
-    <t>泰康港股通中证香港银行投资指数C</t>
-  </si>
-  <si>
-    <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-  </si>
-  <si>
-    <t>南方恒生中国企业ETF</t>
-  </si>
-  <si>
-    <t>国泰恒生港股通指数（LOF）</t>
-  </si>
-  <si>
-    <t>建信港股通恒生中国企业ETF</t>
-  </si>
-  <si>
-    <t>招商上证港股通ETF</t>
-  </si>
-  <si>
-    <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
-  </si>
-  <si>
-    <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
-  </si>
-  <si>
-    <t>平安港股通恒生中国企业ETF</t>
-  </si>
-  <si>
-    <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-  </si>
-  <si>
-    <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-  </si>
-  <si>
-    <t>华夏沪港通恒生ETF</t>
-  </si>
-  <si>
-    <t>富国恒生中国企业ETF</t>
-  </si>
-  <si>
-    <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
-  </si>
-  <si>
-    <t>南方恒生ETF</t>
-  </si>
-  <si>
-    <t>国投瑞银港股通6个月定期开放股票</t>
-  </si>
-  <si>
-    <t>前海开源沪港深核心驱动灵活配置混合</t>
-  </si>
-  <si>
-    <t>华宝港股通香港精选混合</t>
-  </si>
-  <si>
-    <t>银华多元机遇混合</t>
+    <t>99.64</t>
+  </si>
+  <si>
+    <t>88.25</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>7.37</t>
+  </si>
+  <si>
+    <t>6.82</t>
+  </si>
+  <si>
+    <t>10.16</t>
+  </si>
+  <si>
+    <t>8.31</t>
+  </si>
+  <si>
+    <t>10.51</t>
+  </si>
+  <si>
+    <t>5.40</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>1.97</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>98.44</t>
+  </si>
+  <si>
+    <t>91.45</t>
+  </si>
+  <si>
+    <t>72.81</t>
+  </si>
+  <si>
+    <t>95.82</t>
+  </si>
+  <si>
+    <t>68.73</t>
+  </si>
+  <si>
+    <t>87.19</t>
+  </si>
+  <si>
+    <t>97.12</t>
+  </si>
+  <si>
+    <t>97.70</t>
+  </si>
+  <si>
+    <t>91.81</t>
+  </si>
+  <si>
+    <t>95.01</t>
+  </si>
+  <si>
+    <t>100.44</t>
+  </si>
+  <si>
+    <t>94.74</t>
+  </si>
+  <si>
+    <t>93.97</t>
+  </si>
+  <si>
+    <t>98.01</t>
+  </si>
+  <si>
+    <t>94.50</t>
   </si>
   <si>
     <t>94.45</t>
   </si>
   <si>
+    <t>92.97</t>
+  </si>
+  <si>
     <t>93.13</t>
   </si>
   <si>
-    <t>93.97</t>
-  </si>
-  <si>
-    <t>91.45</t>
-  </si>
-  <si>
-    <t>94.74</t>
-  </si>
-  <si>
-    <t>87.19</t>
-  </si>
-  <si>
-    <t>98.44</t>
-  </si>
-  <si>
-    <t>95.01</t>
+    <t>95.54</t>
+  </si>
+  <si>
+    <t>96.09</t>
+  </si>
+  <si>
+    <t>99.29</t>
+  </si>
+  <si>
+    <t>69.81</t>
+  </si>
+  <si>
+    <t>89.94</t>
   </si>
   <si>
     <t>93.94</t>
   </si>
   <si>
-    <t>92.97</t>
-  </si>
-  <si>
-    <t>91.81</t>
-  </si>
-  <si>
-    <t>95.82</t>
-  </si>
-  <si>
-    <t>100.44</t>
+    <t>93.34</t>
   </si>
   <si>
     <t>93.06</t>
   </si>
   <si>
-    <t>95.54</t>
-  </si>
-  <si>
-    <t>96.09</t>
-  </si>
-  <si>
-    <t>94.50</t>
-  </si>
-  <si>
-    <t>97.70</t>
-  </si>
-  <si>
-    <t>93.34</t>
-  </si>
-  <si>
-    <t>97.12</t>
-  </si>
-  <si>
-    <t>99.29</t>
-  </si>
-  <si>
-    <t>98.01</t>
-  </si>
-  <si>
-    <t>68.73</t>
-  </si>
-  <si>
-    <t>69.81</t>
-  </si>
-  <si>
-    <t>89.94</t>
-  </si>
-  <si>
-    <t>72.81</t>
+    <t>4.99</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>15.02</t>
+  </si>
+  <si>
+    <t>4.54</t>
+  </si>
+  <si>
+    <t>4.58</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>4.94</t>
+  </si>
+  <si>
+    <t>14.40</t>
+  </si>
+  <si>
+    <t>6.80</t>
+  </si>
+  <si>
+    <t>5.08</t>
+  </si>
+  <si>
+    <t>5.27</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>4.38</t>
   </si>
   <si>
     <t>4.59</t>
   </si>
   <si>
+    <t>3.59</t>
+  </si>
+  <si>
     <t>5.02</t>
   </si>
   <si>
-    <t>3.18</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>5.27</t>
-  </si>
-  <si>
-    <t>4.58</t>
-  </si>
-  <si>
-    <t>4.99</t>
-  </si>
-  <si>
-    <t>6.80</t>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>4.96</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>3.58</t>
   </si>
   <si>
     <t>3.13</t>
   </si>
   <si>
-    <t>3.59</t>
-  </si>
-  <si>
-    <t>14.40</t>
-  </si>
-  <si>
-    <t>15.02</t>
-  </si>
-  <si>
-    <t>5.08</t>
+    <t>3.47</t>
   </si>
   <si>
     <t>2.08</t>
   </si>
   <si>
-    <t>5.28</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>4.38</t>
-  </si>
-  <si>
-    <t>4.94</t>
-  </si>
-  <si>
-    <t>3.47</t>
-  </si>
-  <si>
-    <t>3.36</t>
-  </si>
-  <si>
-    <t>4.96</t>
-  </si>
-  <si>
-    <t>3.38</t>
-  </si>
-  <si>
-    <t>4.54</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>3.58</t>
-  </si>
-  <si>
-    <t>3.24</t>
+    <t>4.9720</t>
+  </si>
+  <si>
+    <t>2.7358</t>
+  </si>
+  <si>
+    <t>1.4904</t>
+  </si>
+  <si>
+    <t>1.1070</t>
+  </si>
+  <si>
+    <t>1.0244</t>
+  </si>
+  <si>
+    <t>0.4613</t>
+  </si>
+  <si>
+    <t>0.3806</t>
+  </si>
+  <si>
+    <t>0.3531</t>
+  </si>
+  <si>
+    <t>0.2668</t>
+  </si>
+  <si>
+    <t>0.1786</t>
+  </si>
+  <si>
+    <t>0.1625</t>
+  </si>
+  <si>
+    <t>0.1411</t>
+  </si>
+  <si>
+    <t>0.1148</t>
+  </si>
+  <si>
+    <t>0.1038</t>
+  </si>
+  <si>
+    <t>0.0941</t>
+  </si>
+  <si>
+    <t>0.0852</t>
+  </si>
+  <si>
+    <t>0.0539</t>
+  </si>
+  <si>
+    <t>0.0473</t>
+  </si>
+  <si>
+    <t>0.0467</t>
+  </si>
+  <si>
+    <t>0.0265</t>
+  </si>
+  <si>
+    <t>0.0136</t>
+  </si>
+  <si>
+    <t>0.0132</t>
+  </si>
+  <si>
+    <t>0.0131</t>
+  </si>
+  <si>
+    <t>0.0109</t>
+  </si>
+  <si>
+    <t>0.0106</t>
+  </si>
+  <si>
+    <t>0.0093</t>
+  </si>
+  <si>
+    <t>0.0078</t>
+  </si>
+  <si>
+    <t>0.0069</t>
+  </si>
+  <si>
+    <t>0.0039</t>
+  </si>
+  <si>
+    <t>0.0035</t>
+  </si>
+  <si>
+    <t>0.0029</t>
+  </si>
+  <si>
+    <t>0.0021</t>
+  </si>
+  <si>
+    <t>0.0009</t>
   </si>
 </sst>
 </file>
@@ -740,13 +938,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,665 +960,869 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>106</v>
+      </c>
+      <c r="F4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>111</v>
+      </c>
+      <c r="F10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="F11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>113</v>
+      </c>
+      <c r="F12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>114</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>119</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22">
+        <v>121</v>
+      </c>
+      <c r="F22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23">
+        <v>122</v>
+      </c>
+      <c r="F23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>124</v>
+      </c>
+      <c r="F25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>125</v>
+      </c>
+      <c r="F26" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>126</v>
+      </c>
+      <c r="F27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" t="s">
+        <v>181</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>127</v>
+      </c>
+      <c r="F28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" t="s">
+        <v>182</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>128</v>
+      </c>
+      <c r="F29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" t="s">
+        <v>183</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
         <v>118</v>
       </c>
-      <c r="F30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="F30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>121</v>
+      </c>
+      <c r="F31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32">
+        <v>116</v>
+      </c>
+      <c r="F32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>129</v>
+      </c>
+      <c r="F33" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
+        <v>127</v>
+      </c>
+      <c r="F34" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01398-中国工商银行股份有限公司.xlsx
+++ b/数据整理/stocks/港股/01398-中国工商银行股份有限公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3025,4 +3026,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01398-中国工商银行股份有限公司.xlsx
+++ b/数据整理/stocks/港股/01398-中国工商银行股份有限公司.xlsx
@@ -3050,12 +3050,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/01398-中国工商银行股份有限公司.xlsx
+++ b/数据整理/stocks/港股/01398-中国工商银行股份有限公司.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,1307 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510900</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达恒生国企(QDII-ETF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>99.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.9720</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.73</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159920</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏恒生ETF(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.7358</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009960</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华多元机遇混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>46.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>72.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4904</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>15.02</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1070</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>15.02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.0244</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010010</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>68.73</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4613</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161831</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.19</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3806</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>513660</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏沪港通恒生ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.51</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>97.12</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3531</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159960</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>平安港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>97.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2668</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006809</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>14.40</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1786</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>501301</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1625</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006810</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>14.40</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1411</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>159954</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>100.44</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1148</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160717</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1038</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>164705</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇添富恒生指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0941</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>513600</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>南方恒生ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>98.01</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0852</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008407</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0539</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>241001</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华宝海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0473</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006781</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>汇丰晋信港股通精选股票</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.97</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0467</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006355</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006778</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发恒生中国企业精明指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>513680</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>建信港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>95.54</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>513990</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>招商上证港股通ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>96.09</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>159963</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>富国恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>99.29</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>003993</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>69.81</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005883</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华宝港股通香港精选混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>166402</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008408</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006779</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>广发恒生中国企业精明指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>010789</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>汇添富恒生指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>501309</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>国泰恒生港股通指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.94</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3034,64 +1792,1306 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9720</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7358</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4904</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1070</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0244</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4613</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>100.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159963</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005883</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝港股通香港精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="D2" t="n">
-        <v>5.73</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.94</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>